--- a/documentation/ETF-Database-CurrentFieldOptions-updated7-17-2018 (1).xlsx
+++ b/documentation/ETF-Database-CurrentFieldOptions-updated7-17-2018 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Webapp\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F68D6A-D3BA-4083-822D-1910CDEF5D71}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B96CD0-2FE5-4AB1-BEF7-C99942B9CFEF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1564,13 +1564,14 @@
   <dimension ref="A1:X80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" style="3" customWidth="1"/>
-    <col min="2" max="3" width="42.42578125" style="1"/>
+    <col min="2" max="2" width="46.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="42.42578125" style="1"/>
   </cols>
@@ -2201,522 +2202,522 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F79" sqref="F1:F79"/>
+      <selection activeCell="F23" sqref="F1:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>68</v>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D1" s="15" t="str">
         <f>CONCATENATE(A1,B1,C1)</f>
-        <v>"Albin"</v>
+        <v>"American Heritage Center"</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>144</v>
       </c>
       <c r="F1" s="15" t="str">
         <f>CONCATENATE(D1,E1)</f>
-        <v>"Albin",</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>"American Heritage Center",</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>75</v>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D2" s="15" t="str">
         <f t="shared" ref="D2:D65" si="0">CONCATENATE(A2,B2,C2)</f>
-        <v>"Bar Nunn"</v>
+        <v>"College of Agriculture and Natural Resources"</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>144</v>
       </c>
       <c r="F2" s="15" t="str">
         <f t="shared" ref="F2:F65" si="1">CONCATENATE(D2,E2)</f>
-        <v>"Bar Nunn",</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>"College of Agriculture and Natural Resources",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>106</v>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>"Basin"</v>
+        <v>"College of Arts and Sciences"</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>144</v>
       </c>
       <c r="F3" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>"Basin",</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>"College of Arts and Sciences",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>99</v>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D4" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>"Bear River"</v>
+        <v>"College of Business"</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>144</v>
       </c>
       <c r="F4" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>"Bear River",</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>"College of Business",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>65</v>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D5" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>"Buffalo"</v>
+        <v>"College of Education"</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>144</v>
       </c>
       <c r="F5" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>"Buffalo",</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>"College of Education",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>36</v>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D6" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>"Burlington"</v>
+        <v>"College of Engineering and Applied Science"</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>144</v>
       </c>
       <c r="F6" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>"Burlington",</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>"College of Engineering and Applied Science",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>69</v>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D7" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>"Burns"</v>
+        <v>"College of Health Sciences"</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>144</v>
       </c>
       <c r="F7" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>"Burns",</v>
+        <v>"College of Health Sciences",</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>37</v>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D8" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>"Byron"</v>
+        <v>"College of Law"</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>144</v>
       </c>
       <c r="F8" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>"Byron",</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>"College of Law",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>33</v>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D9" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>"Casper"</v>
+        <v>"Division of Academic Affairs"</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>144</v>
       </c>
       <c r="F9" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>"Casper",</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>"Division of Academic Affairs",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>67</v>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D10" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>"Cheyenne"</v>
+        <v>"Division of Administration"</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>144</v>
       </c>
       <c r="F10" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>"Cheyenne",</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>"Division of Administration",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>89</v>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D11" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>"Clearmont"</v>
+        <v>"Division of Governmental and Community Affairs"</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>144</v>
       </c>
       <c r="F11" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>"Clearmont",</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>"Division of Governmental and Community Affairs",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>81</v>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D12" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>"Cody"</v>
+        <v>"Division of Public Relations"</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>144</v>
       </c>
       <c r="F12" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>"Cody",</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>"Division of Public Relations",</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>38</v>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D13" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>"Cowley"</v>
+        <v>"Division of Research and Economic Development"</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>144</v>
       </c>
       <c r="F13" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>"Cowley",</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>"Division of Research and Economic Development",</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>90</v>
+      <c r="B14" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D14" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>"Dayton"</v>
+        <v>"Division of Student Affairs"</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>144</v>
       </c>
       <c r="F14" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>"Dayton",</v>
+        <v>"Division of Student Affairs",</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>39</v>
+      <c r="B15" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D15" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>"Deaver"</v>
+        <v>"General Counsel"</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>144</v>
       </c>
       <c r="F15" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>"Deaver",</v>
+        <v>"General Counsel",</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>72</v>
+      <c r="B16" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D16" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>"Diamondville"</v>
+        <v>"Haub School"</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>144</v>
       </c>
       <c r="F16" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>"Diamondville",</v>
+        <v>"Haub School",</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>49</v>
+      <c r="B17" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D17" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>"Douglas"</v>
+        <v>"Honors College"</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>144</v>
       </c>
       <c r="F17" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>"Douglas",</v>
+        <v>"Honors College",</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>57</v>
+      <c r="B18" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>"Dubois"</v>
+        <v>"Law Library"</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>144</v>
       </c>
       <c r="F18" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>"Dubois",</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>"Law Library",</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>76</v>
+      <c r="B19" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D19" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>"Edgerton"</v>
+        <v>"Office of the President"</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>144</v>
       </c>
       <c r="F19" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>"Edgerton",</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>"Office of the President",</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>98</v>
+      <c r="B20" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D20" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>"Evanston"</v>
+        <v>"School of Energy Resources"</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>144</v>
       </c>
       <c r="F20" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>"Evanston",</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>"School of Energy Resources",</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>77</v>
+      <c r="B21" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D21" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>"Evansville"</v>
+        <v>"University Libraries"</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>144</v>
       </c>
       <c r="F21" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>"Evansville",</v>
+        <v>"University Libraries",</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>40</v>
+      <c r="B22" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D22" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>"Frannie-BigHornCty"</v>
+        <v>"Athletics"</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>144</v>
       </c>
       <c r="F22" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>"Frannie-BigHornCty",</v>
+        <v>"Athletics",</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>83</v>
+      <c r="B23" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D23" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>"Frannie-Park Cty"</v>
+        <v>"University of Wyoming Foundation"</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>144</v>
       </c>
       <c r="F23" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>"Frannie-Park Cty",</v>
+        <v>"University of Wyoming Foundation",</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
